--- a/target/test-classes/testdata/Excel.xlsx
+++ b/target/test-classes/testdata/Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18450" windowHeight="4050"/>
+    <workbookView windowWidth="15450" windowHeight="3555"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="1" r:id="rId1"/>
@@ -96,22 +96,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,25 +118,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,7 +135,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,45 +186,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,18 +201,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -248,7 +248,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,55 +320,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,43 +332,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,13 +344,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,19 +362,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,13 +422,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,35 +444,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,8 +484,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,8 +493,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,12 +513,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,130 +562,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1018,12 +1018,12 @@
   <dimension ref="A1:BY30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B1" sqref="B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7142857142857" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="32.7142857142857" customWidth="1"/>
+    <col min="1" max="16382" width="32.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="26.25" spans="1:77">
